--- a/LuuFile_Excel/DanhSachPhong.xlsx
+++ b/LuuFile_Excel/DanhSachPhong.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="34">
   <si>
     <t/>
   </si>
@@ -35,13 +35,16 @@
     <t>Đơn giá</t>
   </si>
   <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Phòng thường</t>
+  </si>
+  <si>
+    <t>Trống</t>
+  </si>
+  <si>
     <t>102</t>
-  </si>
-  <si>
-    <t>Phòng thường</t>
-  </si>
-  <si>
-    <t>Trống</t>
   </si>
   <si>
     <t>103</t>
@@ -155,7 +158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:F23"/>
+  <dimension ref="A3:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -195,10 +198,10 @@
         <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>20.0</v>
+        <v>5.0</v>
       </c>
       <c r="F4" t="n">
-        <v>280000.0</v>
+        <v>70000.0</v>
       </c>
     </row>
     <row r="5">
@@ -212,13 +215,13 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="F5" t="n">
-        <v>210000.0</v>
+        <v>280000.0</v>
       </c>
     </row>
     <row r="6">
@@ -226,19 +229,19 @@
         <v>3.0</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
       <c r="E6" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="F6" t="n">
-        <v>140000.0</v>
+        <v>210000.0</v>
       </c>
     </row>
     <row r="7">
@@ -249,16 +252,16 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="F7" t="n">
-        <v>150000.0</v>
+        <v>140000.0</v>
       </c>
     </row>
     <row r="8">
@@ -266,19 +269,19 @@
         <v>5.0</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
       <c r="E8" t="n">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="F8" t="n">
-        <v>210000.0</v>
+        <v>150000.0</v>
       </c>
     </row>
     <row r="9">
@@ -286,19 +289,19 @@
         <v>6.0</v>
       </c>
       <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
       <c r="E9" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="F9" t="n">
-        <v>600000.0</v>
+        <v>210000.0</v>
       </c>
     </row>
     <row r="10">
@@ -309,16 +312,16 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="F10" t="n">
-        <v>140000.0</v>
+        <v>600000.0</v>
       </c>
     </row>
     <row r="11">
@@ -329,16 +332,16 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E11" t="n">
         <v>10.0</v>
       </c>
       <c r="F11" t="n">
-        <v>300000.0</v>
+        <v>140000.0</v>
       </c>
     </row>
     <row r="12">
@@ -349,16 +352,16 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="F12" t="n">
-        <v>70000.0</v>
+        <v>300000.0</v>
       </c>
     </row>
     <row r="13">
@@ -372,7 +375,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
         <v>5.0</v>
@@ -392,13 +395,13 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14" t="n">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="F14" t="n">
-        <v>210000.0</v>
+        <v>70000.0</v>
       </c>
     </row>
     <row r="15">
@@ -412,13 +415,13 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="F15" t="n">
-        <v>280000.0</v>
+        <v>210000.0</v>
       </c>
     </row>
     <row r="16">
@@ -432,13 +435,13 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="F16" t="n">
-        <v>210000.0</v>
+        <v>280000.0</v>
       </c>
     </row>
     <row r="17">
@@ -452,13 +455,13 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="F17" t="n">
-        <v>140000.0</v>
+        <v>210000.0</v>
       </c>
     </row>
     <row r="18">
@@ -469,16 +472,16 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E18" t="n">
         <v>10.0</v>
       </c>
       <c r="F18" t="n">
-        <v>300000.0</v>
+        <v>140000.0</v>
       </c>
     </row>
     <row r="19">
@@ -489,16 +492,16 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="F19" t="n">
-        <v>600000.0</v>
+        <v>300000.0</v>
       </c>
     </row>
     <row r="20">
@@ -509,16 +512,16 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="F20" t="n">
-        <v>850000.0</v>
+        <v>600000.0</v>
       </c>
     </row>
     <row r="21">
@@ -529,7 +532,7 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -549,16 +552,16 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E22" t="n">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="F22" t="n">
-        <v>300000.0</v>
+        <v>850000.0</v>
       </c>
     </row>
     <row r="23">
@@ -569,15 +572,35 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E23" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>300000.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="n">
         <v>5.0</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F24" t="n">
         <v>150000.0</v>
       </c>
     </row>
